--- a/Hardware/BOM/Bill of Materials-Staj_Proje_2.xlsx
+++ b/Hardware/BOM/Bill of Materials-Staj_Proje_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donge\OneDrive\Masaüstü\Staj Proje\Proje 2\Staj_Proje_2\Project Outputs for Staj_Proje_2\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C38A33D0-42AE-4EA3-8975-9EA4C880C51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D425892-EC25-407F-BEED-98A325A8EA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{92C8DBBE-49B5-4D37-8FA1-B2D54FB25559}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5441EADB-8EF8-4973-A1D8-B04D9564096C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Staj_Proje_2" sheetId="1" r:id="rId1"/>
@@ -485,7 +485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{415FF4FD-5083-47F1-A2C2-3EBF5DE60021}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B078A97-A384-442D-B787-16D367EDA790}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
